--- a/excelData1.xlsx
+++ b/excelData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85B39D-3EA6-414C-8315-15FEAC82C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3335E81-9A16-4EB1-A0F8-E47970175EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="745">
   <si>
     <t>Product</t>
   </si>
@@ -1928,9 +1928,6 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Booz Scooters</t>
   </si>
   <si>
@@ -2036,9 +2033,6 @@
     <t>https://www.facebook.com/nocarbsdrink/</t>
   </si>
   <si>
-    <t>Beverages</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -2244,6 +2238,39 @@
   </si>
   <si>
     <t>Entrepreneurs/Founders</t>
+  </si>
+  <si>
+    <t>https://vivalyf.in/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vivalyf</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vivalyf.in/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/vivalyf</t>
+  </si>
+  <si>
+    <t>https://twitter.com/vivalyf</t>
+  </si>
+  <si>
+    <t>https://www.motionautomotive.in/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/motion_automotive_/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@motionautomotive9004</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/signatureofelectric/</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Food and Beverages</t>
   </si>
 </sst>
 </file>
@@ -2602,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH93" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ118"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2629,8 +2656,8 @@
     <col min="25" max="25" width="15.109375" customWidth="1"/>
     <col min="26" max="26" width="14.5546875" customWidth="1"/>
     <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="18.109375" customWidth="1"/>
+    <col min="28" max="28" width="21.44140625" customWidth="1"/>
+    <col min="29" max="29" width="42.109375" customWidth="1"/>
     <col min="30" max="30" width="20" customWidth="1"/>
     <col min="31" max="31" width="58.44140625" customWidth="1"/>
     <col min="32" max="32" width="24.77734375" customWidth="1"/>
@@ -2736,19 +2763,19 @@
         <v>388</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>389</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
@@ -2827,7 +2854,7 @@
         <v>410</v>
       </c>
       <c r="AB2" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>626</v>
@@ -2910,25 +2937,25 @@
         <v>1</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="V3" t="s">
         <v>411</v>
       </c>
       <c r="AB3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ66" si="2">CONCATENATE(V3, ", ", W3,", ",X3,", ",Y3,", ",Z3,",  ",AA3)</f>
@@ -3005,16 +3032,16 @@
         <v>412</v>
       </c>
       <c r="AB4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="2"/>
@@ -3094,19 +3121,19 @@
         <v>414</v>
       </c>
       <c r="AB5" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="2"/>
@@ -3186,13 +3213,13 @@
         <v>416</v>
       </c>
       <c r="AB6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="2"/>
@@ -3266,16 +3293,16 @@
         <v>71</v>
       </c>
       <c r="V7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AB7" t="s">
         <v>72</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ7" t="str">
         <f t="shared" si="2"/>
@@ -3355,16 +3382,16 @@
         <v>418</v>
       </c>
       <c r="AB8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AC8" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="AD8" s="4" t="s">
-        <v>655</v>
-      </c>
       <c r="AH8" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="2"/>
@@ -3441,19 +3468,19 @@
         <v>419</v>
       </c>
       <c r="AB9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AE9" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF9" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AG9" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AG9" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="AH9" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="2"/>
@@ -3533,22 +3560,22 @@
         <v>420</v>
       </c>
       <c r="AB10" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="AC10" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="AD10" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="AJ10" t="str">
         <f t="shared" si="2"/>
@@ -3628,22 +3655,22 @@
         <v>423</v>
       </c>
       <c r="AB11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="2"/>
@@ -3723,22 +3750,22 @@
         <v>424</v>
       </c>
       <c r="AB12" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="2"/>
@@ -3815,22 +3842,22 @@
         <v>426</v>
       </c>
       <c r="AB13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AD13" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF13" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="AE13" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="AH13" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AJ13" t="str">
         <f t="shared" si="2"/>
@@ -3913,22 +3940,22 @@
         <v>429</v>
       </c>
       <c r="AB14" t="s">
-        <v>636</v>
+        <v>743</v>
       </c>
       <c r="AC14" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="AD14" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>689</v>
-      </c>
       <c r="AH14" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
@@ -3940,7 +3967,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>94</v>
@@ -4008,19 +4035,19 @@
         <v>431</v>
       </c>
       <c r="AB15" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AE15" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF15" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="AF15" s="4" t="s">
-        <v>694</v>
-      </c>
       <c r="AH15" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="2"/>
@@ -4100,10 +4127,10 @@
         <v>597</v>
       </c>
       <c r="AB16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="2"/>
@@ -4183,22 +4210,22 @@
         <v>433</v>
       </c>
       <c r="AB17" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC17" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="AD17" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="AD17" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="AE17" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="AF17" s="4" t="s">
-        <v>700</v>
-      </c>
       <c r="AH17" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AJ17" t="str">
         <f t="shared" si="2"/>
@@ -4278,25 +4305,25 @@
         <v>435</v>
       </c>
       <c r="AB18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AJ18" t="str">
         <f t="shared" si="2"/>
@@ -4373,19 +4400,19 @@
         <v>436</v>
       </c>
       <c r="AB19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AJ19" t="str">
         <f t="shared" si="2"/>
@@ -4459,25 +4486,25 @@
         <v>106</v>
       </c>
       <c r="AB20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF20" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG20" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="AG20" s="4" t="s">
-        <v>716</v>
-      </c>
       <c r="AH20" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AJ20" t="str">
         <f t="shared" si="2"/>
@@ -4551,25 +4578,25 @@
         <v>110</v>
       </c>
       <c r="AB21" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AC21" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE21" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AF21" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="AG21" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="AE21" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>724</v>
-      </c>
       <c r="AH21" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AJ21" t="str">
         <f t="shared" si="2"/>
@@ -4643,22 +4670,22 @@
         <v>113</v>
       </c>
       <c r="AB22" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AJ22" t="str">
         <f t="shared" si="2"/>
@@ -4735,22 +4762,22 @@
         <v>598</v>
       </c>
       <c r="AB23" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AJ23" t="str">
         <f t="shared" si="2"/>
@@ -4829,6 +4856,24 @@
       <c r="W24" t="s">
         <v>600</v>
       </c>
+      <c r="AB24" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>734</v>
+      </c>
       <c r="AJ24" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Duvvuru Varshita, Vimal Kumar, , , ,  </v>
@@ -4911,6 +4956,21 @@
       </c>
       <c r="Y25" t="s">
         <v>604</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>739</v>
       </c>
       <c r="AJ25" t="str">
         <f t="shared" si="2"/>
@@ -12147,8 +12207,17 @@
     <hyperlink ref="AF23" r:id="rId91" xr:uid="{02007F60-DFD1-4440-AD5A-E0E65C29F4D5}"/>
     <hyperlink ref="AD23" r:id="rId92" xr:uid="{F407129D-D039-48CC-B243-77ED80F7F4FC}"/>
     <hyperlink ref="AC23" r:id="rId93" xr:uid="{029E2848-A202-4AC5-9F33-DC5BEB48F197}"/>
+    <hyperlink ref="AH24" r:id="rId94" xr:uid="{A46A27CB-29C6-4BA1-BACB-6367F2165841}"/>
+    <hyperlink ref="AF24" r:id="rId95" xr:uid="{BE27CF8F-CD7D-4EB3-B06B-D0E54771883D}"/>
+    <hyperlink ref="AE24" r:id="rId96" xr:uid="{D115F56A-1FD3-49D2-87A2-FB010203CB30}"/>
+    <hyperlink ref="AD24" r:id="rId97" xr:uid="{7BA7594F-39AB-488A-8BC8-BA888286DB35}"/>
+    <hyperlink ref="AC24" r:id="rId98" xr:uid="{FA1A2E4F-A129-449D-9B0E-2159F6592371}"/>
+    <hyperlink ref="AH25" r:id="rId99" xr:uid="{459AEE82-949C-4AF4-9B7F-165667D89585}"/>
+    <hyperlink ref="AE25" r:id="rId100" xr:uid="{4ECE4C62-3F10-4F4E-A53C-B94EE02B0EDD}"/>
+    <hyperlink ref="AG25" r:id="rId101" xr:uid="{EA362FBC-F44F-4A96-9AC5-0D19728ABEB1}"/>
+    <hyperlink ref="AD25" r:id="rId102" xr:uid="{5486D1CD-0316-4540-B65B-3FD4B7AF4E79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId94"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId103"/>
 </worksheet>
 </file>
--- a/excelData1.xlsx
+++ b/excelData1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54B2E1-1881-4792-A6E5-1E0B3941F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6203FF1-072E-478B-B732-5B596044BD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2466,21 +2466,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2762,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI119"/>
+  <dimension ref="A1:BI118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+      <selection activeCell="H1" sqref="H1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2850,7 +2841,7 @@
       <c r="J1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>786</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2931,60 +2922,52 @@
       <c r="AK1" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="7" t="s">
+      <c r="BE1" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="1" t="s">
         <v>757</v>
       </c>
     </row>
@@ -3083,69 +3066,61 @@
         <f>CONCATENATE(W2, ", ", X2,", ",Y2,", ",Z2,", ",AA2,",  ",AB2)</f>
         <v xml:space="preserve">Aditi Madan, Rohan Singh, Naveen Pawar, , ,  </v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2">
         <f xml:space="preserve"> (( E2/F2 ) * 100) / 10000000</f>
         <v>10</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2">
         <f>IFERROR(((H2/I2)*100)/10000000, 0)</f>
         <v>4.6875</v>
       </c>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" t="s">
         <v>758</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AQ2">
         <f>COUNTIF(AC:AC,AP2)</f>
         <v>0</v>
       </c>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" t="s">
         <v>395</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2">
         <f>COUNTIF(L:L,AS2)</f>
         <v>65</v>
       </c>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" t="s">
         <v>759</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2">
         <f>COUNTIF(U:U,"1")</f>
         <v>37</v>
       </c>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="11" t="s">
+      <c r="AY2" t="s">
         <v>760</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="AZ2">
         <f>COUNTIF(T:T,"0")</f>
         <v>52</v>
       </c>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5" t="s">
+      <c r="BB2" t="s">
         <v>396</v>
       </c>
-      <c r="BC2" s="5">
+      <c r="BC2">
         <f>COUNTIF(M:M,"Y")</f>
         <v>24</v>
       </c>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" t="s">
         <v>761</v>
       </c>
-      <c r="BF2" s="5">
+      <c r="BF2">
         <f>COUNTIF(V:V,BE2)</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5">
+      <c r="BH2">
         <f>E2/100000</f>
         <v>50</v>
       </c>
-      <c r="BI2" s="5">
+      <c r="BI2">
         <f>H2/100000</f>
         <v>75</v>
       </c>
@@ -3181,7 +3156,7 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
@@ -3239,69 +3214,61 @@
         <f t="shared" ref="AK3:AK66" si="2">CONCATENATE(W3, ", ", X3,", ",Y3,", ",Z3,", ",AA3,",  ",AB3)</f>
         <v xml:space="preserve">Rutvij Dasadia, , , , ,  </v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3">
         <f t="shared" ref="AL3:AL66" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>2.666666666666667</v>
       </c>
-      <c r="AM3" s="12">
+      <c r="AM3">
         <f t="shared" ref="AM3:AM66" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>0.8</v>
       </c>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="8" t="s">
+      <c r="AP3" t="s">
         <v>740</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AQ3">
         <f t="shared" ref="AQ3:AQ13" si="5">COUNTIF(AC:AC,AP3)</f>
         <v>8</v>
       </c>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" t="s">
         <v>70</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AT3">
         <f>COUNTIF(L:L,AS3)</f>
         <v>52</v>
       </c>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="10" t="s">
+      <c r="AV3" t="s">
         <v>762</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3">
         <f>COUNTIF(U:U,"2")</f>
         <v>44</v>
       </c>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" t="s">
         <v>763</v>
       </c>
-      <c r="AZ3" s="5">
+      <c r="AZ3">
         <f>COUNTIF(T:T,"1")</f>
         <v>22</v>
       </c>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5" t="s">
+      <c r="BB3" t="s">
         <v>397</v>
       </c>
-      <c r="BC3" s="5">
+      <c r="BC3">
         <f>COUNTIF(N:N,"Y")</f>
         <v>21</v>
       </c>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="12" t="s">
+      <c r="BE3" t="s">
         <v>764</v>
       </c>
-      <c r="BF3" s="12">
+      <c r="BF3">
         <f t="shared" ref="BF3:BF6" si="6">COUNTIF(V:V,BE3)</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="6">
+      <c r="BH3">
         <f t="shared" ref="BH3:BH66" si="7">E3/100000</f>
         <v>40</v>
       </c>
-      <c r="BI3" s="6">
+      <c r="BI3">
         <f t="shared" ref="BI3:BI66" si="8">H3/100000</f>
         <v>40</v>
       </c>
@@ -3337,7 +3304,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -3392,64 +3359,54 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Riya Khattar, , , , ,  </v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AL4">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4">
         <f t="shared" si="4"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="8" t="s">
+      <c r="AP4" t="s">
         <v>765</v>
       </c>
-      <c r="AQ4" s="8">
+      <c r="AQ4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="10" t="s">
+      <c r="AV4" t="s">
         <v>766</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AW4">
         <f>COUNTIF(U:U,"3")</f>
         <v>19</v>
       </c>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="11" t="s">
+      <c r="AY4" t="s">
         <v>767</v>
       </c>
-      <c r="AZ4" s="5">
+      <c r="AZ4">
         <f>COUNTIF(T:T,"2")</f>
         <v>20</v>
       </c>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5" t="s">
+      <c r="BB4" t="s">
         <v>398</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BC4">
         <f>COUNTIF(O:O,"Y")</f>
         <v>22</v>
       </c>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="12" t="s">
+      <c r="BE4" t="s">
         <v>768</v>
       </c>
-      <c r="BF4" s="12">
+      <c r="BF4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="6">
+      <c r="BH4">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="BI4" s="6">
+      <c r="BI4">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
@@ -3485,7 +3442,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
@@ -3546,64 +3503,54 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Anish, Sagar, , , ,  </v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AL5">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AM5">
         <f t="shared" si="4"/>
         <v>25.454545454545453</v>
       </c>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="8" t="s">
+      <c r="AP5" t="s">
         <v>635</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AQ5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" t="s">
         <v>769</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5">
         <f>COUNTIF(U:U,"4")</f>
         <v>7</v>
       </c>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" t="s">
         <v>770</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="AZ5">
         <f>COUNTIF(T:T,"3")</f>
         <v>14</v>
       </c>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5" t="s">
+      <c r="BB5" t="s">
         <v>399</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BC5">
         <f>COUNTIF(P:P,"Y")</f>
         <v>28</v>
       </c>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="12" t="s">
+      <c r="BE5" t="s">
         <v>771</v>
       </c>
-      <c r="BF5" s="12">
+      <c r="BF5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="6">
+      <c r="BH5">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="BI5" s="6">
+      <c r="BI5">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
@@ -3639,7 +3586,7 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
@@ -3694,64 +3641,54 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Gurunandan Singh, Rajvinder Kaur, , , ,  </v>
       </c>
-      <c r="AL6" s="12">
+      <c r="AL6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM6" s="12">
+      <c r="AM6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="8" t="s">
+      <c r="AP6" t="s">
         <v>772</v>
       </c>
-      <c r="AQ6" s="8">
+      <c r="AQ6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="10" t="s">
+      <c r="AV6" t="s">
         <v>773</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6">
         <f>COUNTIF(U:U,"5")</f>
         <v>0</v>
       </c>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="11" t="s">
+      <c r="AY6" t="s">
         <v>774</v>
       </c>
-      <c r="AZ6" s="5">
+      <c r="AZ6">
         <f>COUNTIF(T:T,"4")</f>
         <v>5</v>
       </c>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5" t="s">
+      <c r="BB6" t="s">
         <v>400</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BC6">
         <f>COUNTIF(Q:Q,"Y")</f>
         <v>27</v>
       </c>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="12" t="s">
+      <c r="BE6" t="s">
         <v>775</v>
       </c>
-      <c r="BF6" s="12">
+      <c r="BF6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="6">
+      <c r="BH6">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI6" s="6">
+      <c r="BI6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3787,7 +3724,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
@@ -3839,59 +3776,47 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pandurang Taware, , , , ,  </v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AL7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AM7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="8" t="s">
+      <c r="AP7" t="s">
         <v>776</v>
       </c>
-      <c r="AQ7" s="8">
+      <c r="AQ7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="10" t="s">
+      <c r="AV7" t="s">
         <v>777</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7">
         <f>COUNTIF(U:U,"6")</f>
         <v>1</v>
       </c>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="11" t="s">
+      <c r="AY7" t="s">
         <v>778</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="AZ7">
         <f>COUNTIF(T:T,"5")</f>
         <v>4</v>
       </c>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5" t="s">
+      <c r="BB7" t="s">
         <v>401</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BC7">
         <f>COUNTIF(R:R,"Y")</f>
         <v>15</v>
       </c>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="6">
+      <c r="BH7">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI7" s="6">
+      <c r="BI7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3927,7 +3852,7 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -3985,54 +3910,40 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rubal Chib, Dr. Srishti Batra, , , ,  </v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AL8">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="AM8" s="12">
+      <c r="AM8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="8" t="s">
+      <c r="AP8" t="s">
         <v>779</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AQ8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="11" t="s">
+      <c r="AY8" t="s">
         <v>780</v>
       </c>
-      <c r="AZ8" s="5">
+      <c r="AZ8">
         <f>COUNTIF(T:T,"6")</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5" t="s">
+      <c r="BB8" t="s">
         <v>402</v>
       </c>
-      <c r="BC8" s="5">
+      <c r="BC8">
         <f>COUNTIF(S:S,"Y")</f>
         <v>7</v>
       </c>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="6">
+      <c r="BH8">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI8" s="6">
+      <c r="BI8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4068,7 +3979,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -4126,49 +4037,33 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Siddhant Avrawala, , , , ,  </v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AL9">
         <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
-      <c r="AM9" s="12">
+      <c r="AM9">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="8" t="s">
+      <c r="AP9" t="s">
         <v>781</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AQ9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5" t="s">
+      <c r="AY9" t="s">
         <v>785</v>
       </c>
-      <c r="AZ9" s="5">
+      <c r="AZ9">
         <f>COUNTIF(T:T,"7")</f>
         <v>0</v>
       </c>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="5"/>
-      <c r="BF9" s="5"/>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="6">
+      <c r="BH9">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="BI9" s="6">
+      <c r="BI9">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -4204,7 +4099,7 @@
       <c r="J10">
         <v>3000000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10">
         <v>12</v>
       </c>
       <c r="L10" t="s">
@@ -4268,44 +4163,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Sidharth, Vinay, , , ,  </v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AL10">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AM10">
         <f t="shared" si="4"/>
         <v>1.3333333333333335</v>
       </c>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="8" t="s">
+      <c r="AP10" t="s">
         <v>782</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AQ10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="6">
+      <c r="BH10">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI10" s="6">
+      <c r="BI10">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
@@ -4341,7 +4218,7 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
@@ -4405,44 +4282,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Kanika, Angad, , , ,  </v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL11">
         <f t="shared" si="3"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AM11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="8" t="s">
+      <c r="AP11" t="s">
         <v>783</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AQ11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="6">
+      <c r="BH11">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI11" s="6">
+      <c r="BI11">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -4478,7 +4337,7 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
@@ -4542,44 +4401,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Kalpana Jha, Uma Jha, , , ,  </v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AM12" s="12">
+      <c r="AM12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="8" t="s">
+      <c r="AP12" t="s">
         <v>784</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="6">
+      <c r="BH12">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI12" s="6">
+      <c r="BI12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4615,7 +4456,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
@@ -4676,44 +4517,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Sulay, , , , ,  </v>
       </c>
-      <c r="AL13" s="12">
+      <c r="AL13">
         <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AM13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="8" t="s">
+      <c r="AP13" t="s">
         <v>667</v>
       </c>
-      <c r="AQ13" s="8">
+      <c r="AQ13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="6">
+      <c r="BH13">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="BI13" s="6">
+      <c r="BI13">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -4749,7 +4572,7 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
@@ -4816,39 +4639,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Jayesh Tope, Pushkaraj Salunke, Pritesh Mahajan, , ,  </v>
       </c>
-      <c r="AL14" s="12">
+      <c r="AL14">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AM14" s="12">
+      <c r="AM14">
         <f t="shared" si="4"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="6">
+      <c r="BH14">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI14" s="6">
+      <c r="BI14">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -4884,7 +4687,7 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
@@ -4945,39 +4748,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rahul Daga, Arpit Kabra, , , ,  </v>
       </c>
-      <c r="AL15" s="12">
+      <c r="AL15">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM15" s="12">
+      <c r="AM15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="6">
+      <c r="BH15">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI15" s="6">
+      <c r="BI15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5013,7 +4796,7 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
@@ -5065,39 +4848,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Baldev Jumnani, Jayeshree Jumnani, , , ,  </v>
       </c>
-      <c r="AL16" s="12">
+      <c r="AL16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AM16" s="12">
+      <c r="AM16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="5"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="6">
+      <c r="BH16">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="BI16" s="6">
+      <c r="BI16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5133,7 +4896,7 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
@@ -5197,39 +4960,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Anuja Kabra, Ravi Kabra, , , ,  </v>
       </c>
-      <c r="AL17" s="12">
+      <c r="AL17">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AM17" s="12">
+      <c r="AM17">
         <f t="shared" si="4"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="6">
+      <c r="BH17">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="BI17" s="6">
+      <c r="BI17">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -5265,7 +5008,7 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
@@ -5332,39 +5075,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Aditi Gupta, Tuhin Paul, , , ,  </v>
       </c>
-      <c r="AL18" s="12">
+      <c r="AL18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AM18" s="12">
+      <c r="AM18">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-      <c r="BE18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
-      <c r="BH18" s="6">
+      <c r="BH18">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI18" s="6">
+      <c r="BI18">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -5400,7 +5123,7 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
@@ -5458,39 +5181,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Deepti Nathala, , , , ,  </v>
       </c>
-      <c r="AL19" s="12">
+      <c r="AL19">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AM19" s="12">
+      <c r="AM19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
-      <c r="BA19" s="5"/>
-      <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5"/>
-      <c r="BE19" s="5"/>
-      <c r="BF19" s="5"/>
-      <c r="BG19" s="5"/>
-      <c r="BH19" s="6">
+      <c r="BH19">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI19" s="6">
+      <c r="BI19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5526,7 +5229,7 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
@@ -5587,39 +5290,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL20" s="12">
+      <c r="AL20">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AM20" s="12">
+      <c r="AM20">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="6">
+      <c r="BH20">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI20" s="6">
+      <c r="BI20">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -5655,7 +5338,7 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
@@ -5716,39 +5399,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL21" s="12">
+      <c r="AL21">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="AM21" s="12">
+      <c r="AM21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="6">
+      <c r="BH21">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="BI21" s="6">
+      <c r="BI21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5784,7 +5447,7 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
@@ -5842,39 +5505,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL22" s="12">
+      <c r="AL22">
         <f t="shared" si="3"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="AM22" s="12">
+      <c r="AM22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="6">
+      <c r="BH22">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI22" s="6">
+      <c r="BI22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5910,7 +5553,7 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
@@ -5971,19 +5614,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Manas Madhu, , , , ,  </v>
       </c>
-      <c r="AL23" s="12">
+      <c r="AL23">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AM23" s="12">
+      <c r="AM23">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="BH23" s="6">
+      <c r="BH23">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI23" s="6">
+      <c r="BI23">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -6019,7 +5662,7 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
@@ -6083,19 +5726,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Duvvuru Varshita, Vimal Kumar, , , ,  </v>
       </c>
-      <c r="AL24" s="12">
+      <c r="AL24">
         <f t="shared" si="3"/>
         <v>7.4666666666666659</v>
       </c>
-      <c r="AM24" s="12">
+      <c r="AM24">
         <f t="shared" si="4"/>
         <v>1.6801680168016802</v>
       </c>
-      <c r="BH24" s="6">
+      <c r="BH24">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="BI24" s="6">
+      <c r="BI24">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
@@ -6131,7 +5774,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
@@ -6198,19 +5841,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Kartikeya, Anant Raj, Shivraj Sinh, Deepenbhai, ,  </v>
       </c>
-      <c r="AL25" s="12">
+      <c r="AL25">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM25" s="12">
+      <c r="AM25">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BH25" s="6">
+      <c r="BH25">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="BI25" s="6">
+      <c r="BI25">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -6246,7 +5889,7 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
@@ -6298,19 +5941,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Bilal Shakil, Sayan Tapadar, Shamik Guha, Anirban Gupta, ,  </v>
       </c>
-      <c r="AL26" s="12">
+      <c r="AL26">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM26" s="12">
+      <c r="AM26">
         <f t="shared" si="4"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="BH26" s="6">
+      <c r="BH26">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI26" s="6">
+      <c r="BI26">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -6346,7 +5989,7 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
@@ -6392,19 +6035,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Vasant, Nisha, , , ,  </v>
       </c>
-      <c r="AL27" s="12">
+      <c r="AL27">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AM27" s="12">
+      <c r="AM27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BH27" s="6">
+      <c r="BH27">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI27" s="6">
+      <c r="BI27">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -6440,7 +6083,7 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
@@ -6486,19 +6129,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Nirmala Murarka, Dr. Manoj Murarka, , , ,  </v>
       </c>
-      <c r="AL28" s="12">
+      <c r="AL28">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AM28" s="12">
+      <c r="AM28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH28" s="6">
+      <c r="BH28">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI28" s="6">
+      <c r="BI28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6534,7 +6177,7 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
@@ -6580,19 +6223,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Anushree, Ananya, , , ,  </v>
       </c>
-      <c r="AL29" s="12">
+      <c r="AL29">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AM29" s="12">
+      <c r="AM29">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="BH29" s="6">
+      <c r="BH29">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="BI29" s="6">
+      <c r="BI29">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
@@ -6628,7 +6271,7 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
@@ -6677,19 +6320,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Vardhaman Gandhi, Saisharan Gandhi, Arnav Gandhi, , ,  </v>
       </c>
-      <c r="AL30" s="12">
+      <c r="AL30">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AM30" s="12">
+      <c r="AM30">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="BH30" s="6">
+      <c r="BH30">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="BI30" s="6">
+      <c r="BI30">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -6725,7 +6368,7 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
@@ -6774,19 +6417,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rakhi Pai, Saurabh Mangrulkar, Venkatesh Prasad, , ,  </v>
       </c>
-      <c r="AL31" s="12">
+      <c r="AL31">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="AM31" s="12">
+      <c r="AM31">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="BH31" s="6">
+      <c r="BH31">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="BI31" s="6">
+      <c r="BI31">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -6822,7 +6465,7 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
@@ -6865,19 +6508,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Gaurav Goyal, , , , ,  </v>
       </c>
-      <c r="AL32" s="12">
+      <c r="AL32">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="AM32" s="12">
+      <c r="AM32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH32" s="6">
+      <c r="BH32">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="BI32" s="6">
+      <c r="BI32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6913,7 +6556,7 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" t="s">
@@ -6962,19 +6605,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Mohammad Ekbal, Saransh Anand, Kranti Anand, , ,  </v>
       </c>
-      <c r="AL33" s="12">
+      <c r="AL33">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM33" s="12">
+      <c r="AM33">
         <f t="shared" si="4"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="BH33" s="6">
+      <c r="BH33">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI33" s="6">
+      <c r="BI33">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -7010,7 +6653,7 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
@@ -7056,19 +6699,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Chahat Pahuja, Sanskar Mishra, , , ,  </v>
       </c>
-      <c r="AL34" s="12">
+      <c r="AL34">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM34" s="12">
+      <c r="AM34">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="BH34" s="6">
+      <c r="BH34">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="BI34" s="6">
+      <c r="BI34">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -7104,7 +6747,7 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" t="s">
@@ -7147,19 +6790,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Aishwarya Biswas, , , , ,  </v>
       </c>
-      <c r="AL35" s="12">
+      <c r="AL35">
         <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
-      <c r="AM35" s="12">
+      <c r="AM35">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BH35" s="6">
+      <c r="BH35">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="BI35" s="6">
+      <c r="BI35">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -7195,7 +6838,7 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" t="s">
@@ -7241,19 +6884,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Suman Chaudhary, Vinod Kulhari, , , ,  </v>
       </c>
-      <c r="AL36" s="12">
+      <c r="AL36">
         <f t="shared" si="3"/>
         <v>13.333333333333332</v>
       </c>
-      <c r="AM36" s="12">
+      <c r="AM36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH36" s="6">
+      <c r="BH36">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="BI36" s="6">
+      <c r="BI36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7289,7 +6932,7 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="s">
@@ -7332,19 +6975,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Krishnan Sunderarajan, , , , ,  </v>
       </c>
-      <c r="AL37" s="12">
+      <c r="AL37">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="AM37" s="12">
+      <c r="AM37">
         <f t="shared" si="4"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="BH37" s="6">
+      <c r="BH37">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="BI37" s="6">
+      <c r="BI37">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
@@ -7380,7 +7023,7 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
@@ -7432,19 +7075,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Aman, Dilip, Sanskriti,  Saif, ,  </v>
       </c>
-      <c r="AL38" s="12">
+      <c r="AL38">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="AM38" s="12">
+      <c r="AM38">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="BH38" s="6">
+      <c r="BH38">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="BI38" s="6">
+      <c r="BI38">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
@@ -7480,7 +7123,7 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
@@ -7526,19 +7169,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Surabhi Shah, Chetna Shah, , , ,  </v>
       </c>
-      <c r="AL39" s="12">
+      <c r="AL39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AM39" s="12">
+      <c r="AM39">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="BH39" s="6">
+      <c r="BH39">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI39" s="6">
+      <c r="BI39">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -7574,7 +7217,7 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40">
         <v>0</v>
       </c>
       <c r="L40" t="s">
@@ -7617,19 +7260,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pratik Gadia, , , , ,  </v>
       </c>
-      <c r="AL40" s="12">
+      <c r="AL40">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AM40" s="12">
+      <c r="AM40">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="BH40" s="6">
+      <c r="BH40">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI40" s="6">
+      <c r="BI40">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -7665,7 +7308,7 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" t="s">
@@ -7708,19 +7351,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Shashank Modhia, , , , ,  </v>
       </c>
-      <c r="AL41" s="12">
+      <c r="AL41">
         <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="AM41" s="12">
+      <c r="AM41">
         <f t="shared" si="4"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="BH41" s="6">
+      <c r="BH41">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI41" s="6">
+      <c r="BI41">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -7756,7 +7399,7 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42">
         <v>0</v>
       </c>
       <c r="L42" t="s">
@@ -7805,19 +7448,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Tanmay Shah,  Bipin Shah,  Kalyani Shah, , ,  </v>
       </c>
-      <c r="AL42" s="12">
+      <c r="AL42">
         <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="AM42" s="12">
+      <c r="AM42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH42" s="6">
+      <c r="BH42">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI42" s="6">
+      <c r="BI42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7853,7 +7496,7 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43">
         <v>0</v>
       </c>
       <c r="L43" t="s">
@@ -7896,19 +7539,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Purva Aggarwal, , , , ,  </v>
       </c>
-      <c r="AL43" s="12">
+      <c r="AL43">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AM43" s="12">
+      <c r="AM43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH43" s="6">
+      <c r="BH43">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="BI43" s="6">
+      <c r="BI43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7944,7 +7587,7 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44">
         <v>0</v>
       </c>
       <c r="L44" t="s">
@@ -7987,19 +7630,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rohit Nandwani, , , , ,  </v>
       </c>
-      <c r="AL44" s="12">
+      <c r="AL44">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM44" s="12">
+      <c r="AM44">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="BH44" s="6">
+      <c r="BH44">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="BI44" s="6">
+      <c r="BI44">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -8035,7 +7678,7 @@
       <c r="J45">
         <v>2500000</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45">
         <v>12</v>
       </c>
       <c r="L45" t="s">
@@ -8075,19 +7718,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL45" s="12">
+      <c r="AL45">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="AM45" s="12">
+      <c r="AM45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BH45" s="6">
+      <c r="BH45">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI45" s="6">
+      <c r="BI45">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
@@ -8123,7 +7766,7 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
@@ -8172,19 +7815,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Sasi Kanth, Sunil Kumar, Pawan Kumar, , ,  </v>
       </c>
-      <c r="AL46" s="12">
+      <c r="AL46">
         <f t="shared" si="3"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AM46" s="12">
+      <c r="AM46">
         <f t="shared" si="4"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="BH46" s="6">
+      <c r="BH46">
         <f t="shared" si="7"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="BI46" s="6">
+      <c r="BI46">
         <f t="shared" si="8"/>
         <v>5.0000000000000002E-5</v>
       </c>
@@ -8220,7 +7863,7 @@
       <c r="J47">
         <v>3000000</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47">
         <v>12</v>
       </c>
       <c r="L47" t="s">
@@ -8266,19 +7909,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ashwini, Yogesh, , , ,  </v>
       </c>
-      <c r="AL47" s="12">
+      <c r="AL47">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AM47" s="12">
+      <c r="AM47">
         <f t="shared" si="4"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="BH47" s="6">
+      <c r="BH47">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="BI47" s="6">
+      <c r="BI47">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -8314,7 +7957,7 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48">
         <v>0</v>
       </c>
       <c r="L48" t="s">
@@ -8363,19 +8006,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Jessica Madan, Akshay Gupta, Vaibhav Khanna, , ,  </v>
       </c>
-      <c r="AL48" s="12">
+      <c r="AL48">
         <f t="shared" si="3"/>
         <v>10.714285714285714</v>
       </c>
-      <c r="AM48" s="12">
+      <c r="AM48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH48" s="6">
+      <c r="BH48">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="BI48" s="6">
+      <c r="BI48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -8411,7 +8054,7 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
@@ -8457,19 +8100,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Devang Singhania, Shachi Singhania, , , ,  </v>
       </c>
-      <c r="AL49" s="12">
+      <c r="AL49">
         <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
-      <c r="AM49" s="12">
+      <c r="AM49">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BH49" s="6">
+      <c r="BH49">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="BI49" s="6">
+      <c r="BI49">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -8505,7 +8148,7 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
@@ -8557,19 +8200,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Nitin Kalra, Chitra Gupta, Neelam Kalra, Geetanjali, ,  </v>
       </c>
-      <c r="AL50" s="12">
+      <c r="AL50">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
-      <c r="AM50" s="12">
+      <c r="AM50">
         <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="BH50" s="6">
+      <c r="BH50">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="BI50" s="6">
+      <c r="BI50">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -8605,7 +8248,7 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
@@ -8654,19 +8297,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Harshdeep Singh, Simardeep Singh, Danish Chawla, , ,  </v>
       </c>
-      <c r="AL51" s="12">
+      <c r="AL51">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AM51" s="12">
+      <c r="AM51">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="BH51" s="6">
+      <c r="BH51">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI51" s="6">
+      <c r="BI51">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -8702,7 +8345,7 @@
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
@@ -8748,19 +8391,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> Vikas Kakwani, Leena Kakwani, , , ,  </v>
       </c>
-      <c r="AL52" s="12">
+      <c r="AL52">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AM52" s="12">
+      <c r="AM52">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="BH52" s="6">
+      <c r="BH52">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="BI52" s="6">
+      <c r="BI52">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
@@ -8796,7 +8439,7 @@
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53">
         <v>0</v>
       </c>
       <c r="L53" t="s">
@@ -8842,19 +8485,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Kaushal Modi, Sukriti Agarwal, , , ,  </v>
       </c>
-      <c r="AL53" s="12">
+      <c r="AL53">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM53" s="12">
+      <c r="AM53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH53" s="6">
+      <c r="BH53">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI53" s="6">
+      <c r="BI53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -8890,7 +8533,7 @@
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
@@ -8933,19 +8576,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ranjeet Deshmukh, , , , ,  </v>
       </c>
-      <c r="AL54" s="12">
+      <c r="AL54">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="AM54" s="12">
+      <c r="AM54">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BH54" s="6">
+      <c r="BH54">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="BI54" s="6">
+      <c r="BI54">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
@@ -8981,7 +8624,7 @@
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
@@ -9030,19 +8673,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Vikas Kanoi, Pratibha Kanoi, Visshaal Kanoi, , ,  </v>
       </c>
-      <c r="AL55" s="12">
+      <c r="AL55">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="AM55" s="12">
+      <c r="AM55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH55" s="6">
+      <c r="BH55">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="BI55" s="6">
+      <c r="BI55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9078,7 +8721,7 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56">
         <v>0</v>
       </c>
       <c r="L56" t="s">
@@ -9118,19 +8761,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL56" s="12">
+      <c r="AL56">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="AM56" s="12">
+      <c r="AM56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH56" s="6">
+      <c r="BH56">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI56" s="6">
+      <c r="BI56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9166,7 +8809,7 @@
       <c r="J57">
         <v>9900000</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57">
         <v>12</v>
       </c>
       <c r="L57" t="s">
@@ -9212,19 +8855,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Kanav Manchanda, Kshitij Bajaj, , , ,  </v>
       </c>
-      <c r="AL57" s="12">
+      <c r="AL57">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AM57" s="12">
+      <c r="AM57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BH57" s="6">
+      <c r="BH57">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI57" s="6">
+      <c r="BI57">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -9260,7 +8903,7 @@
       <c r="J58">
         <v>0</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58">
         <v>0</v>
       </c>
       <c r="L58" t="s">
@@ -9303,19 +8946,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Shruti Reddy, , , , ,  </v>
       </c>
-      <c r="AL58" s="12">
+      <c r="AL58">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AM58" s="12">
+      <c r="AM58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH58" s="6">
+      <c r="BH58">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI58" s="6">
+      <c r="BI58">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9351,7 +8994,7 @@
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59">
         <v>0</v>
       </c>
       <c r="L59" t="s">
@@ -9397,19 +9040,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pankaj Khabiya, Bharat Ranka, , , ,  </v>
       </c>
-      <c r="AL59" s="12">
+      <c r="AL59">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM59" s="12">
+      <c r="AM59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH59" s="6">
+      <c r="BH59">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="BI59" s="6">
+      <c r="BI59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9445,7 +9088,7 @@
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60">
         <v>0</v>
       </c>
       <c r="L60" t="s">
@@ -9491,19 +9134,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Romeo P Jerard, Sreeshankar S Nair, , , ,  </v>
       </c>
-      <c r="AL60" s="12">
+      <c r="AL60">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AM60" s="12">
+      <c r="AM60">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="BH60" s="6">
+      <c r="BH60">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI60" s="6">
+      <c r="BI60">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
@@ -9539,7 +9182,7 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61">
         <v>0</v>
       </c>
       <c r="L61" t="s">
@@ -9582,19 +9225,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Sahil Pruthi, , , , ,  </v>
       </c>
-      <c r="AL61" s="12">
+      <c r="AL61">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="AM61" s="12">
+      <c r="AM61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH61" s="6">
+      <c r="BH61">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="BI61" s="6">
+      <c r="BI61">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9630,7 +9273,7 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62">
         <v>0</v>
       </c>
       <c r="L62" t="s">
@@ -9679,19 +9322,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Tejas Shah, Zubin Bhatt, Dhananjay Bhatt, , ,  </v>
       </c>
-      <c r="AL62" s="12">
+      <c r="AL62">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="AM62" s="12">
+      <c r="AM62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH62" s="6">
+      <c r="BH62">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="BI62" s="6">
+      <c r="BI62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9727,7 +9370,7 @@
       <c r="J63">
         <v>2500000</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63">
         <v>12</v>
       </c>
       <c r="L63" t="s">
@@ -9773,19 +9416,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Muskan Sancheti, Raghav Jhawar, , , ,  </v>
       </c>
-      <c r="AL63" s="12">
+      <c r="AL63">
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
-      <c r="AM63" s="12">
+      <c r="AM63">
         <f t="shared" si="4"/>
         <v>13.333333333333332</v>
       </c>
-      <c r="BH63" s="6">
+      <c r="BH63">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="BI63" s="6">
+      <c r="BI63">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
@@ -9821,7 +9464,7 @@
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64">
         <v>0</v>
       </c>
       <c r="L64" t="s">
@@ -9864,19 +9507,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Sumit Kumar, , , , ,  </v>
       </c>
-      <c r="AL64" s="12">
+      <c r="AL64">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AM64" s="12">
+      <c r="AM64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH64" s="6">
+      <c r="BH64">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="BI64" s="6">
+      <c r="BI64">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9912,7 +9555,7 @@
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65">
         <v>0</v>
       </c>
       <c r="L65" t="s">
@@ -9952,19 +9595,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL65" s="12">
+      <c r="AL65">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AM65" s="12">
+      <c r="AM65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="BH65" s="6">
+      <c r="BH65">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="BI65" s="6">
+      <c r="BI65">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -10000,7 +9643,7 @@
       <c r="J66">
         <v>0</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66">
         <v>0</v>
       </c>
       <c r="L66" t="s">
@@ -10046,19 +9689,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Jimmy Shah, and Jash Shah, , , ,  </v>
       </c>
-      <c r="AL66" s="12">
+      <c r="AL66">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="AM66" s="12">
+      <c r="AM66">
         <f t="shared" si="4"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="BH66" s="6">
+      <c r="BH66">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BI66" s="6">
+      <c r="BI66">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -10094,7 +9737,7 @@
       <c r="J67">
         <v>2200000</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67">
         <v>12</v>
       </c>
       <c r="L67" t="s">
@@ -10137,19 +9780,19 @@
         <f t="shared" ref="AK67:AK118" si="11">CONCATENATE(W67, ", ", X67,", ",Y67,", ",Z67,", ",AA67,",  ",AB67)</f>
         <v xml:space="preserve">Siddharth Gupta, , , , ,  </v>
       </c>
-      <c r="AL67" s="12">
+      <c r="AL67">
         <f t="shared" ref="AL67:AL118" si="12" xml:space="preserve"> (( E67/F67 ) * 100) / 10000000</f>
         <v>4.7</v>
       </c>
-      <c r="AM67" s="12">
+      <c r="AM67">
         <f t="shared" ref="AM67:AM118" si="13">IFERROR(((H67/I67)*100)/10000000, 0)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BH67" s="6">
+      <c r="BH67">
         <f t="shared" ref="BH67:BH118" si="14">E67/100000</f>
         <v>47</v>
       </c>
-      <c r="BI67" s="6">
+      <c r="BI67">
         <f t="shared" ref="BI67:BI118" si="15">H67/100000</f>
         <v>25</v>
       </c>
@@ -10185,7 +9828,7 @@
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68">
         <v>0</v>
       </c>
       <c r="L68" t="s">
@@ -10228,19 +9871,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Malvica Saxena, , , , ,  </v>
       </c>
-      <c r="AL68" s="12">
+      <c r="AL68">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AM68" s="12">
+      <c r="AM68">
         <f t="shared" si="13"/>
         <v>1.4583333333333335</v>
       </c>
-      <c r="BH68" s="6">
+      <c r="BH68">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="BI68" s="6">
+      <c r="BI68">
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
@@ -10276,7 +9919,7 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
@@ -10325,19 +9968,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Piyush Wadhwani, Jitendra Sharma, Ashish Tiwar, , ,  </v>
       </c>
-      <c r="AL69" s="12">
+      <c r="AL69">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AM69" s="12">
+      <c r="AM69">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="BH69" s="6">
+      <c r="BH69">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="BI69" s="6">
+      <c r="BI69">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
@@ -10373,7 +10016,7 @@
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70">
         <v>0</v>
       </c>
       <c r="L70" t="s">
@@ -10416,19 +10059,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Aditi Talwar Sodhi, , , , ,  </v>
       </c>
-      <c r="AL70" s="12">
+      <c r="AL70">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AM70" s="12">
+      <c r="AM70">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH70" s="6">
+      <c r="BH70">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI70" s="6">
+      <c r="BI70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -10464,7 +10107,7 @@
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
@@ -10504,19 +10147,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL71" s="12">
+      <c r="AL71">
         <f t="shared" si="12"/>
         <v>160</v>
       </c>
-      <c r="AM71" s="12">
+      <c r="AM71">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH71" s="6">
+      <c r="BH71">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="BI71" s="6">
+      <c r="BI71">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -10552,7 +10195,7 @@
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72">
         <v>0</v>
       </c>
       <c r="L72" t="s">
@@ -10601,19 +10244,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Dhruv Soni, Rahul Shankar Bhardwaj, Gulshan Sharma, , ,  </v>
       </c>
-      <c r="AL72" s="12">
+      <c r="AL72">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="AM72" s="12">
+      <c r="AM72">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH72" s="6">
+      <c r="BH72">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI72" s="6">
+      <c r="BI72">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -10649,7 +10292,7 @@
       <c r="J73">
         <v>5000000</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73">
         <v>12</v>
       </c>
       <c r="L73" t="s">
@@ -10692,19 +10335,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Ridhima Arora, , , , ,  </v>
       </c>
-      <c r="AL73" s="12">
+      <c r="AL73">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AM73" s="12">
+      <c r="AM73">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="BH73" s="6">
+      <c r="BH73">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI73" s="6">
+      <c r="BI73">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -10740,7 +10383,7 @@
       <c r="J74">
         <v>0</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74">
         <v>0</v>
       </c>
       <c r="L74" t="s">
@@ -10783,19 +10426,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Yash Gangwal, , , , ,  </v>
       </c>
-      <c r="AL74" s="12">
+      <c r="AL74">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AM74" s="12">
+      <c r="AM74">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH74" s="6">
+      <c r="BH74">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI74" s="6">
+      <c r="BI74">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -10831,7 +10474,7 @@
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75">
         <v>0</v>
       </c>
       <c r="L75" t="s">
@@ -10877,19 +10520,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Tasneen Badri, Ismail Badri, , , ,  </v>
       </c>
-      <c r="AL75" s="12">
+      <c r="AL75">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="AM75" s="12">
+      <c r="AM75">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH75" s="6">
+      <c r="BH75">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="BI75" s="6">
+      <c r="BI75">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -10925,7 +10568,7 @@
       <c r="J76">
         <v>0</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76">
         <v>0</v>
       </c>
       <c r="L76" t="s">
@@ -10971,19 +10614,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Oshima Hans, Saurabh Tokas, , , ,  </v>
       </c>
-      <c r="AL76" s="12">
+      <c r="AL76">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AM76" s="12">
+      <c r="AM76">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH76" s="6">
+      <c r="BH76">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI76" s="6">
+      <c r="BI76">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -11019,7 +10662,7 @@
       <c r="J77">
         <v>0</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K77">
         <v>0</v>
       </c>
       <c r="L77" t="s">
@@ -11062,19 +10705,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Rishika Nayak Shetty, , , , ,  </v>
       </c>
-      <c r="AL77" s="12">
+      <c r="AL77">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AM77" s="12">
+      <c r="AM77">
         <f t="shared" si="13"/>
         <v>1.4285714285714288</v>
       </c>
-      <c r="BH77" s="6">
+      <c r="BH77">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="BI77" s="6">
+      <c r="BI77">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -11110,7 +10753,7 @@
       <c r="J78">
         <v>2000000</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78">
         <v>12</v>
       </c>
       <c r="L78" t="s">
@@ -11153,19 +10796,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Kamlesh Nanasahe Ghumare, , , , ,  </v>
       </c>
-      <c r="AL78" s="12">
+      <c r="AL78">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="AM78" s="12">
+      <c r="AM78">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="BH78" s="6">
+      <c r="BH78">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="BI78" s="6">
+      <c r="BI78">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
@@ -11201,7 +10844,7 @@
       <c r="J79">
         <v>0</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79">
         <v>0</v>
       </c>
       <c r="L79" t="s">
@@ -11247,19 +10890,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Alpana Tiwari, Viral Tiwari, , , ,  </v>
       </c>
-      <c r="AL79" s="12">
+      <c r="AL79">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AM79" s="12">
+      <c r="AM79">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH79" s="6">
+      <c r="BH79">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="BI79" s="6">
+      <c r="BI79">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -11295,7 +10938,7 @@
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80">
         <v>0</v>
       </c>
       <c r="L80" t="s">
@@ -11338,19 +10981,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Priyam Singh, , , , ,  </v>
       </c>
-      <c r="AL80" s="12">
+      <c r="AL80">
         <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
-      <c r="AM80" s="12">
+      <c r="AM80">
         <f t="shared" si="13"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="BH80" s="6">
+      <c r="BH80">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI80" s="6">
+      <c r="BI80">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -11386,7 +11029,7 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81">
         <v>0</v>
       </c>
       <c r="L81" t="s">
@@ -11438,19 +11081,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Saurabh Badola, Rajat Jain, Nitin Chandola, Sabit Rawa, ,  </v>
       </c>
-      <c r="AL81" s="12">
+      <c r="AL81">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AM81" s="12">
+      <c r="AM81">
         <f t="shared" si="13"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="BH81" s="6">
+      <c r="BH81">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI81" s="6">
+      <c r="BI81">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -11486,7 +11129,7 @@
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K82">
         <v>0</v>
       </c>
       <c r="L82" t="s">
@@ -11538,19 +11181,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> Priyam Vohra, Umesh Gajera, Chetan Kanani, Mahatava Sheta, ,  </v>
       </c>
-      <c r="AL82" s="12">
+      <c r="AL82">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="AM82" s="12">
+      <c r="AM82">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH82" s="6">
+      <c r="BH82">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="BI82" s="6">
+      <c r="BI82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -11586,7 +11229,7 @@
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83">
         <v>0</v>
       </c>
       <c r="L83" t="s">
@@ -11629,19 +11272,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Vidushi Vijayvergia, , , , ,  </v>
       </c>
-      <c r="AL83" s="12">
+      <c r="AL83">
         <f t="shared" si="12"/>
         <v>6.25</v>
       </c>
-      <c r="AM83" s="12">
+      <c r="AM83">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BH83" s="6">
+      <c r="BH83">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI83" s="6">
+      <c r="BI83">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -11677,7 +11320,7 @@
       <c r="J84">
         <v>0</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K84">
         <v>0</v>
       </c>
       <c r="L84" t="s">
@@ -11726,19 +11369,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Rameshkumar Patel, Chandrakanth Bhai Patel, Jay Umretiya, , ,  </v>
       </c>
-      <c r="AL84" s="12">
+      <c r="AL84">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AM84" s="12">
+      <c r="AM84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH84" s="6">
+      <c r="BH84">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI84" s="6">
+      <c r="BI84">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -11774,7 +11417,7 @@
       <c r="J85">
         <v>0</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K85">
         <v>0</v>
       </c>
       <c r="L85" t="s">
@@ -11820,19 +11463,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Vijay Kumar, Ranodeep Saha, , , ,  </v>
       </c>
-      <c r="AL85" s="12">
+      <c r="AL85">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="AM85" s="12">
+      <c r="AM85">
         <f t="shared" si="13"/>
         <v>21.666666666666664</v>
       </c>
-      <c r="BH85" s="6">
+      <c r="BH85">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="BI85" s="6">
+      <c r="BI85">
         <f t="shared" si="15"/>
         <v>65</v>
       </c>
@@ -11868,7 +11511,7 @@
       <c r="J86">
         <v>0</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86">
         <v>0</v>
       </c>
       <c r="L86" t="s">
@@ -11911,19 +11554,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Bhupinder Madaan, , , , ,  </v>
       </c>
-      <c r="AL86" s="12">
+      <c r="AL86">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AM86" s="12">
+      <c r="AM86">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH86" s="6">
+      <c r="BH86">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI86" s="6">
+      <c r="BI86">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -11959,7 +11602,7 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="K87" s="12">
+      <c r="K87">
         <v>0</v>
       </c>
       <c r="L87" t="s">
@@ -12002,19 +11645,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Nihaal Singh Adarsh, , , , ,  </v>
       </c>
-      <c r="AL87" s="12">
+      <c r="AL87">
         <f t="shared" si="12"/>
         <v>5.0500000000000002E-4</v>
       </c>
-      <c r="AM87" s="12">
+      <c r="AM87">
         <f t="shared" si="13"/>
         <v>2.5250000000000001E-4</v>
       </c>
-      <c r="BH87" s="6">
+      <c r="BH87">
         <f t="shared" si="14"/>
         <v>1.01E-3</v>
       </c>
-      <c r="BI87" s="6">
+      <c r="BI87">
         <f t="shared" si="15"/>
         <v>1.01E-3</v>
       </c>
@@ -12050,7 +11693,7 @@
       <c r="J88">
         <v>0</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K88">
         <v>0</v>
       </c>
       <c r="L88" t="s">
@@ -12108,19 +11751,19 @@
         <f t="shared" si="11"/>
         <v>Shreyansh, Konark, Aakarsh, Anant, Udit,  Bhavya</v>
       </c>
-      <c r="AL88" s="12">
+      <c r="AL88">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AM88" s="12">
+      <c r="AM88">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH88" s="6">
+      <c r="BH88">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="BI88" s="6">
+      <c r="BI88">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12156,7 +11799,7 @@
       <c r="J89">
         <v>0</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K89">
         <v>0</v>
       </c>
       <c r="L89" t="s">
@@ -12205,19 +11848,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> Ravi Mathur, Deepak Bhuvneshwari Uniyal, Shilpa Arora, , ,  </v>
       </c>
-      <c r="AL89" s="12">
+      <c r="AL89">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AM89" s="12">
+      <c r="AM89">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="BH89" s="6">
+      <c r="BH89">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI89" s="6">
+      <c r="BI89">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -12253,7 +11896,7 @@
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K90">
         <v>0</v>
       </c>
       <c r="L90" t="s">
@@ -12302,19 +11945,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Vishal Chaudhary, Malvika Gaekwad, Jaywant Patil, , ,  </v>
       </c>
-      <c r="AL90" s="12">
+      <c r="AL90">
         <f t="shared" si="12"/>
         <v>18.75</v>
       </c>
-      <c r="AM90" s="12">
+      <c r="AM90">
         <f t="shared" si="13"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="BH90" s="6">
+      <c r="BH90">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI90" s="6">
+      <c r="BI90">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -12350,7 +11993,7 @@
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="K91" s="12">
+      <c r="K91">
         <v>0</v>
       </c>
       <c r="L91" t="s">
@@ -12396,19 +12039,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Zamzeer Ahamed, Jameela Ruhi, , , ,  </v>
       </c>
-      <c r="AL91" s="12">
+      <c r="AL91">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="AM91" s="12">
+      <c r="AM91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH91" s="6">
+      <c r="BH91">
         <f t="shared" si="14"/>
         <v>90</v>
       </c>
-      <c r="BI91" s="6">
+      <c r="BI91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12444,7 +12087,7 @@
       <c r="J92">
         <v>0</v>
       </c>
-      <c r="K92" s="12">
+      <c r="K92">
         <v>0</v>
       </c>
       <c r="L92" t="s">
@@ -12484,19 +12127,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL92" s="12">
+      <c r="AL92">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="AM92" s="12">
+      <c r="AM92">
         <f t="shared" si="13"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="BH92" s="6">
+      <c r="BH92">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI92" s="6">
+      <c r="BI92">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -12532,7 +12175,7 @@
       <c r="J93">
         <v>0</v>
       </c>
-      <c r="K93" s="12">
+      <c r="K93">
         <v>0</v>
       </c>
       <c r="L93" t="s">
@@ -12575,19 +12218,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Sairaj Gaurish Dhond, , , , ,  </v>
       </c>
-      <c r="AL93" s="12">
+      <c r="AL93">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AM93" s="12">
+      <c r="AM93">
         <f t="shared" si="13"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="BH93" s="6">
+      <c r="BH93">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI93" s="6">
+      <c r="BI93">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
@@ -12623,7 +12266,7 @@
       <c r="J94">
         <v>0</v>
       </c>
-      <c r="K94" s="12">
+      <c r="K94">
         <v>0</v>
       </c>
       <c r="L94" t="s">
@@ -12669,19 +12312,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Chirag Visaria, Sneha Visaria, , , ,  </v>
       </c>
-      <c r="AL94" s="12">
+      <c r="AL94">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="AM94" s="12">
+      <c r="AM94">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH94" s="6">
+      <c r="BH94">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI94" s="6">
+      <c r="BI94">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12717,7 +12360,7 @@
       <c r="J95">
         <v>0</v>
       </c>
-      <c r="K95" s="12">
+      <c r="K95">
         <v>0</v>
       </c>
       <c r="L95" t="s">
@@ -12763,19 +12406,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Soham Donde, Amir Mulani, , , ,  </v>
       </c>
-      <c r="AL95" s="12">
+      <c r="AL95">
         <f t="shared" si="12"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="AM95" s="12">
+      <c r="AM95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH95" s="6">
+      <c r="BH95">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI95" s="6">
+      <c r="BI95">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12811,7 +12454,7 @@
       <c r="J96">
         <v>0</v>
       </c>
-      <c r="K96" s="12">
+      <c r="K96">
         <v>0</v>
       </c>
       <c r="L96" t="s">
@@ -12854,19 +12497,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Rohit Warrier, , , , ,  </v>
       </c>
-      <c r="AL96" s="12">
+      <c r="AL96">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AM96" s="12">
+      <c r="AM96">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH96" s="6">
+      <c r="BH96">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI96" s="6">
+      <c r="BI96">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12902,7 +12545,7 @@
       <c r="J97">
         <v>0</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97">
         <v>0</v>
       </c>
       <c r="L97" t="s">
@@ -12948,19 +12591,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Suhail Chandhok, Arvind Sivdas, , , ,  </v>
       </c>
-      <c r="AL97" s="12">
+      <c r="AL97">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="AM97" s="12">
+      <c r="AM97">
         <f t="shared" si="13"/>
         <v>13.333333333333332</v>
       </c>
-      <c r="BH97" s="6">
+      <c r="BH97">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="BI97" s="6">
+      <c r="BI97">
         <f t="shared" si="15"/>
         <v>80</v>
       </c>
@@ -12996,7 +12639,7 @@
       <c r="J98">
         <v>0</v>
       </c>
-      <c r="K98" s="12">
+      <c r="K98">
         <v>0</v>
       </c>
       <c r="L98" t="s">
@@ -13042,19 +12685,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Nidhi Gupta, Anuj Bhagat, , , ,  </v>
       </c>
-      <c r="AL98" s="12">
+      <c r="AL98">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
-      <c r="AM98" s="12">
+      <c r="AM98">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH98" s="6">
+      <c r="BH98">
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="BI98" s="6">
+      <c r="BI98">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13090,7 +12733,7 @@
       <c r="J99">
         <v>0</v>
       </c>
-      <c r="K99" s="12">
+      <c r="K99">
         <v>0</v>
       </c>
       <c r="L99" t="s">
@@ -13133,19 +12776,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Mayank Pareek, , , , ,  </v>
       </c>
-      <c r="AL99" s="12">
+      <c r="AL99">
         <f t="shared" si="12"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="AM99" s="12">
+      <c r="AM99">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH99" s="6">
+      <c r="BH99">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI99" s="6">
+      <c r="BI99">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13181,7 +12824,7 @@
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100" s="12">
+      <c r="K100">
         <v>0</v>
       </c>
       <c r="L100" t="s">
@@ -13227,19 +12870,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Shikha Shah, Madhu Shah, , , ,  </v>
       </c>
-      <c r="AL100" s="12">
+      <c r="AL100">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AM100" s="12">
+      <c r="AM100">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH100" s="6">
+      <c r="BH100">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI100" s="6">
+      <c r="BI100">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13275,7 +12918,7 @@
       <c r="J101">
         <v>0</v>
       </c>
-      <c r="K101" s="12">
+      <c r="K101">
         <v>0</v>
       </c>
       <c r="L101" t="s">
@@ -13321,19 +12964,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Nikky Kumar Jha, Rashmi Jha, , , ,  </v>
       </c>
-      <c r="AL101" s="12">
+      <c r="AL101">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="AM101" s="12">
+      <c r="AM101">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH101" s="6">
+      <c r="BH101">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="BI101" s="6">
+      <c r="BI101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13369,7 +13012,7 @@
       <c r="J102">
         <v>0</v>
       </c>
-      <c r="K102" s="12">
+      <c r="K102">
         <v>0</v>
       </c>
       <c r="L102" t="s">
@@ -13418,19 +13061,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Sandeep Acharya, Abhilesh Gupta, Ramanath Padmanabhan, , ,  </v>
       </c>
-      <c r="AL102" s="12">
+      <c r="AL102">
         <f t="shared" si="12"/>
         <v>37.5</v>
       </c>
-      <c r="AM102" s="12">
+      <c r="AM102">
         <f t="shared" si="13"/>
         <v>27.985074626865671</v>
       </c>
-      <c r="BH102" s="6">
+      <c r="BH102">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI102" s="6">
+      <c r="BI102">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
@@ -13466,7 +13109,7 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="K103" s="12">
+      <c r="K103">
         <v>0</v>
       </c>
       <c r="L103" t="s">
@@ -13509,19 +13152,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Kowshik Devarajan, , , , ,  </v>
       </c>
-      <c r="AL103" s="12">
+      <c r="AL103">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="AM103" s="12">
+      <c r="AM103">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH103" s="6">
+      <c r="BH103">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="BI103" s="6">
+      <c r="BI103">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13557,7 +13200,7 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104" s="12">
+      <c r="K104">
         <v>0</v>
       </c>
       <c r="L104" t="s">
@@ -13603,19 +13246,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Aditi Minda, Ashwini Gadia, , , ,  </v>
       </c>
-      <c r="AL104" s="12">
+      <c r="AL104">
         <f t="shared" si="12"/>
         <v>11.428571428571431</v>
       </c>
-      <c r="AM104" s="12">
+      <c r="AM104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH104" s="6">
+      <c r="BH104">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="BI104" s="6">
+      <c r="BI104">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13651,7 +13294,7 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="K105" s="12">
+      <c r="K105">
         <v>0</v>
       </c>
       <c r="L105" t="s">
@@ -13697,19 +13340,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Prashant Pandey, Karan Bhardwaj, , , ,  </v>
       </c>
-      <c r="AL105" s="12">
+      <c r="AL105">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AM105" s="12">
+      <c r="AM105">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH105" s="6">
+      <c r="BH105">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="BI105" s="6">
+      <c r="BI105">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13745,7 +13388,7 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="K106" s="12">
+      <c r="K106">
         <v>0</v>
       </c>
       <c r="L106" t="s">
@@ -13791,19 +13434,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Sanmati Pande, Harshit Sethy, , , ,  </v>
       </c>
-      <c r="AL106" s="12">
+      <c r="AL106">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AM106" s="12">
+      <c r="AM106">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="BH106" s="6">
+      <c r="BH106">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI106" s="6">
+      <c r="BI106">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -13839,7 +13482,7 @@
       <c r="J107">
         <v>0</v>
       </c>
-      <c r="K107" s="12">
+      <c r="K107">
         <v>0</v>
       </c>
       <c r="L107" t="s">
@@ -13885,19 +13528,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Alisha Nagarsheth, Yash Nagarsheth, , , ,  </v>
       </c>
-      <c r="AL107" s="12">
+      <c r="AL107">
         <f t="shared" si="12"/>
         <v>5.8333333333333339</v>
       </c>
-      <c r="AM107" s="12">
+      <c r="AM107">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH107" s="6">
+      <c r="BH107">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="BI107" s="6">
+      <c r="BI107">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13933,7 +13576,7 @@
       <c r="J108">
         <v>0</v>
       </c>
-      <c r="K108" s="12">
+      <c r="K108">
         <v>0</v>
       </c>
       <c r="L108" t="s">
@@ -13979,19 +13622,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Trishla Surana, Rajeev, , , ,  </v>
       </c>
-      <c r="AL108" s="12">
+      <c r="AL108">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AM108" s="12">
+      <c r="AM108">
         <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
-      <c r="BH108" s="6">
+      <c r="BH108">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="BI108" s="6">
+      <c r="BI108">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
@@ -14027,7 +13670,7 @@
       <c r="J109">
         <v>0</v>
       </c>
-      <c r="K109" s="12">
+      <c r="K109">
         <v>0</v>
       </c>
       <c r="L109" t="s">
@@ -14073,19 +13716,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Meenakshi Bhanj, Vikram Mittal, , , ,  </v>
       </c>
-      <c r="AL109" s="12">
+      <c r="AL109">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="AM109" s="12">
+      <c r="AM109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH109" s="6">
+      <c r="BH109">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="BI109" s="6">
+      <c r="BI109">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -14121,7 +13764,7 @@
       <c r="J110">
         <v>0</v>
       </c>
-      <c r="K110" s="12">
+      <c r="K110">
         <v>0</v>
       </c>
       <c r="L110" t="s">
@@ -14173,19 +13816,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Anant Sharma, Ayush Kushwaha, Shwetank Shrey, Aman Parnami, ,  </v>
       </c>
-      <c r="AL110" s="12">
+      <c r="AL110">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AM110" s="12">
+      <c r="AM110">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="BH110" s="6">
+      <c r="BH110">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="BI110" s="6">
+      <c r="BI110">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
@@ -14221,7 +13864,7 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111" s="12">
+      <c r="K111">
         <v>0</v>
       </c>
       <c r="L111" t="s">
@@ -14267,19 +13910,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Pulkit Ahuja, Inderjit Singh Makkar, , , ,  </v>
       </c>
-      <c r="AL111" s="12">
+      <c r="AL111">
         <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="AM111" s="12">
+      <c r="AM111">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="BH111" s="6">
+      <c r="BH111">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="BI111" s="6">
+      <c r="BI111">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -14315,7 +13958,7 @@
       <c r="J112">
         <v>0</v>
       </c>
-      <c r="K112" s="12">
+      <c r="K112">
         <v>0</v>
       </c>
       <c r="L112" t="s">
@@ -14356,19 +13999,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">, , , , ,  </v>
       </c>
-      <c r="AL112" s="12">
+      <c r="AL112">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AM112" s="12">
+      <c r="AM112">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="BH112" s="6">
+      <c r="BH112">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="BI112" s="6">
+      <c r="BI112">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
@@ -14404,7 +14047,7 @@
       <c r="J113">
         <v>0</v>
       </c>
-      <c r="K113" s="12">
+      <c r="K113">
         <v>0</v>
       </c>
       <c r="L113" t="s">
@@ -14447,19 +14090,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Niti Singhal, , , , ,  </v>
       </c>
-      <c r="AL113" s="12">
+      <c r="AL113">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AM113" s="12">
+      <c r="AM113">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH113" s="6">
+      <c r="BH113">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="BI113" s="6">
+      <c r="BI113">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -14495,7 +14138,7 @@
       <c r="J114">
         <v>0</v>
       </c>
-      <c r="K114" s="12">
+      <c r="K114">
         <v>0</v>
       </c>
       <c r="L114" t="s">
@@ -14538,19 +14181,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Madhvi Datwani, , , , ,  </v>
       </c>
-      <c r="AL114" s="12">
+      <c r="AL114">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AM114" s="12">
+      <c r="AM114">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH114" s="6">
+      <c r="BH114">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="BI114" s="6">
+      <c r="BI114">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -14586,7 +14229,7 @@
       <c r="J115">
         <v>0</v>
       </c>
-      <c r="K115" s="12">
+      <c r="K115">
         <v>0</v>
       </c>
       <c r="L115" t="s">
@@ -14629,19 +14272,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Sanandan Sudhir, , , , ,  </v>
       </c>
-      <c r="AL115" s="12">
+      <c r="AL115">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AM115" s="12">
+      <c r="AM115">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH115" s="6">
+      <c r="BH115">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI115" s="6">
+      <c r="BI115">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -14677,7 +14320,7 @@
       <c r="J116">
         <v>0</v>
       </c>
-      <c r="K116" s="12">
+      <c r="K116">
         <v>0</v>
       </c>
       <c r="L116" t="s">
@@ -14720,19 +14363,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Anubhav Jain, , , , ,  </v>
       </c>
-      <c r="AL116" s="12">
+      <c r="AL116">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AM116" s="12">
+      <c r="AM116">
         <f t="shared" si="13"/>
         <v>1.3333333333333335</v>
       </c>
-      <c r="BH116" s="6">
+      <c r="BH116">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="BI116" s="6">
+      <c r="BI116">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
@@ -14768,7 +14411,7 @@
       <c r="J117">
         <v>0</v>
       </c>
-      <c r="K117" s="12">
+      <c r="K117">
         <v>0</v>
       </c>
       <c r="L117" t="s">
@@ -14817,19 +14460,19 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Supreet Kaur Shah, Manish Kelshikar, Rupali Kelshikar, , ,  </v>
       </c>
-      <c r="AL117" s="12">
+      <c r="AL117">
         <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
-      <c r="AM117" s="12">
+      <c r="AM117">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH117" s="6">
+      <c r="BH117">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BI117" s="6">
+      <c r="BI117">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -14865,7 +14508,7 @@
       <c r="J118">
         <v>0</v>
       </c>
-      <c r="K118" s="12">
+      <c r="K118">
         <v>0</v>
       </c>
       <c r="L118" t="s">
@@ -14914,25 +14557,22 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve">Pankaj Bhai, Aashna Mutneja, Suresh Mutneja, , ,  </v>
       </c>
-      <c r="AL118" s="12">
+      <c r="AL118">
         <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="AM118" s="12">
+      <c r="AM118">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH118" s="6">
+      <c r="BH118">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BI118" s="6">
+      <c r="BI118">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="BH119" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
